--- a/Excel reader/First Contest/B6.xlsx
+++ b/Excel reader/First Contest/B6.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Hackerearth Username</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Enrolment</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Problems Solved</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Plagiarism Status</t>
         </is>
@@ -446,16 +451,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>satyam365</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>181b186</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -464,16 +474,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>saloni-s</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>181b179</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -482,16 +497,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>rashi211</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>181b163</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -500,16 +520,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>ritika234</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>181b169</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -518,16 +543,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>shantanu277</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>181b190</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -536,16 +566,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>shaanrathore25</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>181b192</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -554,16 +589,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>ronit128</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>181b174</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -572,16 +612,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>rohit2501</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>181b172</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -590,16 +635,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>sayant1204</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>181b188</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -608,16 +658,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>rohini279</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>181b171</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -626,16 +681,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>sadhvi19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>181b176</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -644,16 +704,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>shantanu.46pandey</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>181b191</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -662,16 +727,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>sshukla1420</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>181b185</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -680,16 +750,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>sanhita7</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t xml:space="preserve">181b180 </t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
       <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -698,16 +773,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>satwik40</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>181b183</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -716,16 +796,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>sarthak936</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>181b182</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>6</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -734,16 +819,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>2000riti</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>181b168</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>6</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
